--- a/BalanceSheet/FE_bal.xlsx
+++ b/BalanceSheet/FE_bal.xlsx
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>14000000.0</v>
+        <v>303000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>317000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-5000000.0</v>
+        <v>308000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>303000000.0</v>
@@ -1663,19 +1663,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>43000000.0</v>
+        <v>870000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-66000000.0</v>
+        <v>827000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>11000000.0</v>
+        <v>891000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-17000000.0</v>
+        <v>882000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-66000000.0</v>
+        <v>898000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1005000000.0</v>
@@ -2900,19 +2900,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>82000000.0</v>
+        <v>3203000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>3095000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>121000000.0</v>
+        <v>3036000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>81000000.0</v>
+        <v>2876000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-78000000.0</v>
+        <v>2774000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>2849000000.0</v>
@@ -4829,7 +4829,7 @@
         <v>21767000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>20592000000.0</v>
+        <v>20319000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>20053000000.0</v>
@@ -4956,7 +4956,7 @@
         <v>21952000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>21271000000.0</v>
+        <v>20998000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>20803000000.0</v>
